--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,155,156,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,157,158,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,159,160,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>create_weight1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,35 +336,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,155,156,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,157,158,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,159,160,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
+    <t>161,162,163,161,162,163,170,171,172,170,171,172,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,173,174,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,175,176,176,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,176,178,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -511,11 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,6 +525,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1127,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1144,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1161,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1358,7 +1370,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1379,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" activeCellId="1" sqref="A17:H24 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1590,286 +1602,376 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>65</v>
       </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>66</v>
       </c>
-      <c r="D10" s="17">
-        <v>2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>67</v>
       </c>
-      <c r="D11" s="17">
-        <v>2</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18">
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>68</v>
       </c>
-      <c r="D12" s="17">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
         <v>5</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="16">
         <v>70</v>
       </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19">
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>71</v>
       </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19">
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>72</v>
       </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19">
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="16">
         <v>73</v>
       </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
         <v>5</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19">
+      <c r="F16" s="15"/>
+      <c r="G16" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="16">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>74</v>
       </c>
-      <c r="D17" s="22">
-        <v>2</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="13">
+      <c r="D17" s="19">
+        <v>2</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18">
         <v>1612828800</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="18">
         <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>75</v>
       </c>
-      <c r="D18" s="22">
-        <v>2</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="13">
+      <c r="D18" s="19">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18">
         <v>1612828800</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="18">
         <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <v>76</v>
       </c>
-      <c r="D19" s="22">
-        <v>2</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="13">
+      <c r="D19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18">
         <v>1612828800</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="18">
         <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="18">
         <v>77</v>
       </c>
-      <c r="D20" s="22">
-        <v>2</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19">
         <v>5</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="13">
+      <c r="F20" s="19"/>
+      <c r="G20" s="18">
         <v>1612828800</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="18">
         <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="21">
+        <v>78</v>
+      </c>
+      <c r="D21" s="22">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="21">
+        <v>79</v>
+      </c>
+      <c r="D22" s="22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="21">
+        <v>80</v>
+      </c>
+      <c r="D23" s="22">
+        <v>2</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="21">
+        <v>81</v>
+      </c>
+      <c r="D24" s="22">
+        <v>2</v>
+      </c>
+      <c r="E24" s="22">
+        <v>5</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1614009599</v>
       </c>
     </row>
   </sheetData>
@@ -2067,14 +2169,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2115,84 +2217,100 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>69</v>
+      <c r="D3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>70</v>
+      <c r="E4" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>71</v>
+      <c r="E5" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>73</v>
+      <c r="E6" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>

--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1795,15 +1795,13 @@
       <c r="D17" s="22">
         <v>2</v>
       </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
+      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="19">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1612799999</v>
+      <c r="G17" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1819,15 +1817,13 @@
       <c r="D18" s="22">
         <v>2</v>
       </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
+      <c r="E18" s="22"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="19">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1612799999</v>
+      <c r="G18" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1843,15 +1839,13 @@
       <c r="D19" s="22">
         <v>2</v>
       </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
+      <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="19">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1612799999</v>
+      <c r="G19" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1871,11 +1865,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="19">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="19">
-        <v>1612799999</v>
+      <c r="G20" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1613404799</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,21 @@
   </si>
   <si>
     <t>168,169,176,178,186,187,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +494,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -546,6 +561,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1101,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1384,6 +1400,40 @@
       </c>
       <c r="E15" s="11" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="11">
+        <v>290</v>
+      </c>
+      <c r="D16" s="11">
+        <v>300</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="11">
+        <v>290</v>
+      </c>
+      <c r="D17" s="11">
+        <v>300</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2173,8 +2223,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,10 +1631,10 @@
         <v>70</v>
       </c>
       <c r="D16" s="11">
-        <v>290</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="11">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>67</v>
@@ -1651,10 +1651,10 @@
         <v>69</v>
       </c>
       <c r="D17" s="11">
-        <v>290</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="11">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>68</v>
@@ -2851,7 +2851,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,15 +84,6 @@
   <si>
     <t>min_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>create_weight2</t>
   </si>
   <si>
     <t>create_pro|三个档次的出生率</t>
@@ -220,12 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
     <t>dead_force_create_index|死亡强制创建标志索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,47 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,170,171,172,170,171,172,
-179,180,181,179,180,181,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,173,174,182,183,185,176,167,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,175,176,176,184,185,185,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,176,178,186,187,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>83,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +309,146 @@
   </si>
   <si>
     <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +520,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,7 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +590,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -524,9 +620,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,34 +627,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -860,25 +958,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -927,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -976,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1081,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1117,323 +1215,901 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="11">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="11">
         <v>180</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>220</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="11">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11">
         <v>180</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>220</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="11">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="11">
         <v>200</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>250</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11">
         <v>300</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>500</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11">
         <v>400</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>600</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="11">
+        <v>76</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="11">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="11">
         <v>280</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>300</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="11">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="11">
         <v>40</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>80</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="11">
+        <v>80</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="11">
         <v>50</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="11">
         <v>1500</v>
       </c>
-      <c r="D11" s="11">
+      <c r="E11" s="11">
         <v>1800</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
+        <v>81</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="11">
         <v>3000</v>
       </c>
-      <c r="D12" s="11">
+      <c r="E12" s="11">
         <v>3300</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11">
+        <v>82</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="11">
         <v>4500</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>4800</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="11">
+        <v>83</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11">
         <v>500</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="11">
         <v>700</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="11">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="11">
         <v>2000</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>4000</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="11">
         <v>290</v>
       </c>
-      <c r="D16" s="11">
+      <c r="E16" s="11">
         <v>300</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="11">
         <v>290</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="11">
         <v>300</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>83</v>
+      <c r="F17" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J18" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J20" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J21" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J22" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="23">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="23">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="27">
+        <v>1612828800</v>
+      </c>
+      <c r="J23" s="27">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E25" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J28" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="24">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="24">
+        <v>6000</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E30" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="30">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="30">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E31" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="30">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="30">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="30">
+        <v>1614038400</v>
+      </c>
+      <c r="J32" s="30">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="30">
+        <v>1614038400</v>
+      </c>
+      <c r="J33" s="30">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E34" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="30">
+        <v>1614038400</v>
+      </c>
+      <c r="J34" s="30">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="25">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="30">
+        <v>1614038400</v>
+      </c>
+      <c r="J35" s="30">
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +2124,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" activeCellId="1" sqref="A17:H24 E29"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1465,28 +2141,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1494,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1518,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6">
         <v>16</v>
@@ -1542,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6">
         <v>17</v>
@@ -1568,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1592,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1615,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1638,7 +2314,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -1656,377 +2332,277 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13">
         <v>65</v>
       </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13">
         <v>66</v>
       </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+    <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="13">
         <v>67</v>
       </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+    <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13">
         <v>68</v>
       </c>
-      <c r="D12" s="14">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
         <v>5</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15">
         <v>70</v>
       </c>
-      <c r="D13" s="15">
-        <v>2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16">
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="15">
         <v>71</v>
       </c>
-      <c r="D14" s="15">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16">
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="15">
         <v>72</v>
       </c>
-      <c r="D15" s="15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16">
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="15">
         <v>73</v>
       </c>
-      <c r="D16" s="15">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14">
         <v>5</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16">
+      <c r="F16" s="14"/>
+      <c r="G16" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="18">
-        <v>74</v>
-      </c>
-      <c r="D17" s="19">
-        <v>2</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18">
-        <v>1612828800</v>
-      </c>
-      <c r="H17" s="18">
-        <v>1613404799</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="18">
-        <v>75</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18">
-        <v>1612828800</v>
-      </c>
-      <c r="H18" s="18">
-        <v>1613404799</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>18</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="18">
-        <v>76</v>
-      </c>
-      <c r="D19" s="19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18">
-        <v>1612828800</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1613404799</v>
-      </c>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="18">
-        <v>77</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="19">
-        <v>5</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="18">
-        <v>1612828800</v>
-      </c>
-      <c r="H20" s="18">
-        <v>1613404799</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="21">
-        <v>78</v>
-      </c>
-      <c r="D21" s="22">
-        <v>2</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H21" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="21">
-        <v>79</v>
-      </c>
-      <c r="D22" s="22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H22" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="21">
-        <v>80</v>
-      </c>
-      <c r="D23" s="22">
-        <v>2</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H23" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="21">
-        <v>81</v>
-      </c>
-      <c r="D24" s="22">
-        <v>2</v>
-      </c>
-      <c r="E24" s="22">
-        <v>5</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H24" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2224,7 +2800,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2238,19 +2814,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2258,113 +2834,73 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>73</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>74</v>
-      </c>
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>77</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -2704,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2769,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,61 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +645,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -638,9 +693,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1217,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1228,8 +1280,8 @@
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1257,10 +1309,10 @@
       <c r="H1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1283,8 +1335,8 @@
       <c r="F2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
@@ -1305,8 +1357,8 @@
       <c r="F3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
@@ -1327,8 +1379,8 @@
       <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -1410,8 +1462,8 @@
       <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -1453,8 +1505,8 @@
       <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -1521,8 +1573,8 @@
       <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -1543,8 +1595,8 @@
       <c r="F14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -1565,8 +1617,8 @@
       <c r="F15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -1612,27 +1664,27 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>1200</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>3000</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="27">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1640,27 +1692,27 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>1200</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>3000</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="27">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1668,27 +1720,27 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>1200</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>3000</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="27">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1696,27 +1748,27 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>1200</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>3000</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="27">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1724,27 +1776,27 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>1200</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>3000</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="27">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1752,27 +1804,27 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>3000</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>6000</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="27">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="26">
         <v>1612828800</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="26">
         <v>1613404799</v>
       </c>
     </row>
@@ -1780,23 +1832,23 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>1200</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>3000</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="16">
         <v>1613433600</v>
       </c>
@@ -1808,23 +1860,23 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>1200</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>3000</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="16">
         <v>1613433600</v>
       </c>
@@ -1836,23 +1888,23 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>1200</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>3000</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="16">
         <v>1613433600</v>
       </c>
@@ -1864,23 +1916,23 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>1200</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>3000</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="16">
         <v>1613433600</v>
       </c>
@@ -1892,23 +1944,23 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>1200</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>3000</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="16">
         <v>1613433600</v>
       </c>
@@ -1920,23 +1972,23 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="23">
         <v>3000</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>6000</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="16">
         <v>1613433600</v>
       </c>
@@ -1948,27 +2000,27 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>1200</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <v>3000</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="30">
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="29">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="29">
         <v>1614614399</v>
       </c>
     </row>
@@ -1976,27 +2028,27 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>1200</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>3000</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="30">
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="29">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="29">
         <v>1614614399</v>
       </c>
     </row>
@@ -2004,27 +2056,27 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <v>1200</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="24">
         <v>3000</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="30">
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="29">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="29">
         <v>1614614399</v>
       </c>
     </row>
@@ -2032,27 +2084,27 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>1200</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="24">
         <v>3000</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="30">
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="29">
         <v>1614038400</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="29">
         <v>1614614399</v>
       </c>
     </row>
@@ -2060,27 +2112,27 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <v>1200</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="24">
         <v>3000</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="30">
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="29">
         <v>1614038400</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="29">
         <v>1614614399</v>
       </c>
     </row>
@@ -2088,27 +2140,27 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24">
         <v>3000</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="24">
         <v>6000</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="30">
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="29">
         <v>1614038400</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <v>1614614399</v>
       </c>
     </row>
@@ -2799,8 +2851,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2847,32 +2899,72 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>

--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,20 +369,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>常规活动鱼2.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>常规活动鱼2.9</t>
@@ -397,6 +456,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>常规活动鱼boss2.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,78 +476,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>179,180,181,182,183,184</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +622,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -690,9 +686,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1250,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1291,10 +1286,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1641,24 +1636,24 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D18" s="22">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E18" s="22">
-        <v>3000</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>103</v>
+        <v>300</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -1669,24 +1664,24 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D19" s="22">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E19" s="22">
-        <v>3000</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>104</v>
+        <v>300</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -1697,24 +1692,24 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D20" s="22">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E20" s="22">
-        <v>3000</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>105</v>
+        <v>300</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -1725,23 +1720,23 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D21" s="22">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E21" s="22">
-        <v>3000</v>
-      </c>
-      <c r="F21" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="22"/>
@@ -1753,23 +1748,23 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D22" s="22">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="22">
-        <v>3000</v>
-      </c>
-      <c r="F22" s="31" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="22"/>
@@ -1781,51 +1776,51 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="22">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="22">
-        <v>6000</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="B23" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="23">
+        <v>200</v>
+      </c>
+      <c r="E23" s="23">
+        <v>300</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="26">
-        <v>1612828800</v>
-      </c>
-      <c r="J23" s="26">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="16">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D24" s="23">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E24" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F24" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="23"/>
@@ -1837,23 +1832,23 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D25" s="23">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E25" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F25" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="23"/>
@@ -1865,23 +1860,23 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D26" s="23">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E26" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F26" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="23"/>
@@ -1893,7 +1888,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1901,15 +1896,15 @@
         <v>86</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D27" s="23">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F27" s="32" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G27" s="23"/>
@@ -1921,79 +1916,79 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="23">
-        <v>1200</v>
-      </c>
-      <c r="E28" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F28" s="32" t="s">
+      <c r="B28" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="24">
+        <v>200</v>
+      </c>
+      <c r="E28" s="24">
+        <v>300</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="16">
-        <v>1613433600</v>
-      </c>
-      <c r="J28" s="16">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="29">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="29">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="23">
-        <v>3000</v>
-      </c>
-      <c r="E29" s="23">
-        <v>6000</v>
-      </c>
-      <c r="F29" s="32" t="s">
+      <c r="C29" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="24">
+        <v>200</v>
+      </c>
+      <c r="E29" s="24">
+        <v>300</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="16">
-        <v>1613433600</v>
-      </c>
-      <c r="J29" s="16">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="29">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="29">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D30" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E30" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F30" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="24"/>
@@ -2005,23 +2000,23 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D31" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E31" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F31" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="24"/>
@@ -2033,7 +2028,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2041,15 +2036,15 @@
         <v>88</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D32" s="24">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F32" s="33" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="24"/>
@@ -2061,89 +2056,23 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="24">
-        <v>1200</v>
-      </c>
-      <c r="E33" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="29">
-        <v>1614038400</v>
-      </c>
-      <c r="J33" s="29">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="24">
-        <v>1200</v>
-      </c>
-      <c r="E34" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="29">
-        <v>1614038400</v>
-      </c>
-      <c r="J34" s="29">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="24">
-        <v>3000</v>
-      </c>
-      <c r="E35" s="24">
-        <v>6000</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="29">
-        <v>1614038400</v>
-      </c>
-      <c r="J35" s="29">
-        <v>1614614399</v>
-      </c>
+    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="19"/>
+      <c r="F33" s="32"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="19"/>
+      <c r="F34" s="32"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="19"/>
+      <c r="F35" s="32"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2832,8 +2761,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2883,13 +2812,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2898,13 +2827,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2913,13 +2842,13 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2928,13 +2857,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="15" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -336,19 +336,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,170,171,172,170,171,172,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,173,174,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,175,176,176,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,176,178,</t>
+    <t>161,162,163,161,162,163,170,171,172,170,171,172,
+179,180,181,179,180,181,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,173,174,182,183,185,176,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,175,176,176,184,185,185,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,176,178,186,187,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +479,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -542,6 +543,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2170,7 +2174,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2216,11 +2220,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="18" t="s">

--- a/config_2.9/fish_3d_yutu_random_5.xlsx
+++ b/config_2.9/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,9 +226,6 @@
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
     <t>max_create_num|最大的创建次数（默认为9999）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30,40,30</t>
   </si>
   <si>
@@ -467,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight2</t>
   </si>
   <si>
@@ -478,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,60,5</t>
   </si>
   <si>
@@ -489,10 +474,6 @@
   </si>
   <si>
     <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1269,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
@@ -1289,7 +1270,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1307,13 +1288,13 @@
         <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>102</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1321,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1333,7 +1314,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
@@ -1343,10 +1324,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1355,7 +1336,7 @@
         <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
@@ -1365,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1387,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1407,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1419,7 +1400,7 @@
         <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1427,10 +1408,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1439,7 +1420,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -1448,10 +1429,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1470,10 +1451,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11">
         <v>40</v>
@@ -1491,10 +1472,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -1513,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="11">
         <v>1500</v>
@@ -1525,7 +1506,7 @@
         <v>1800</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -1536,10 +1517,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="11">
         <v>3000</v>
@@ -1548,7 +1529,7 @@
         <v>3300</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1559,10 +1540,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="11">
         <v>4500</v>
@@ -1571,7 +1552,7 @@
         <v>4800</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -1581,10 +1562,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="11">
         <v>500</v>
@@ -1603,10 +1584,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="11">
         <v>2000</v>
@@ -1625,10 +1606,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1637,7 +1618,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1645,10 +1626,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1657,7 +1638,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1665,10 +1646,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="22">
         <v>1200</v>
@@ -1677,7 +1658,7 @@
         <v>3000</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -1693,10 +1674,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="22">
         <v>1200</v>
@@ -1705,7 +1686,7 @@
         <v>3000</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -1721,10 +1702,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="22">
         <v>1200</v>
@@ -1733,7 +1714,7 @@
         <v>3000</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -1749,10 +1730,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="22">
         <v>1200</v>
@@ -1777,10 +1758,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>92</v>
       </c>
       <c r="D22" s="22">
         <v>1200</v>
@@ -1805,10 +1786,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>95</v>
       </c>
       <c r="D23" s="22">
         <v>3000</v>
@@ -1833,10 +1814,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="23">
         <v>1200</v>
@@ -1861,10 +1842,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="23">
         <v>1200</v>
@@ -1889,10 +1870,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="23">
         <v>1200</v>
@@ -1917,10 +1898,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="23">
         <v>1200</v>
@@ -1945,10 +1926,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="23">
         <v>1200</v>
@@ -1973,10 +1954,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="23">
         <v>3000</v>
@@ -2001,10 +1982,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="24">
         <v>1200</v>
@@ -2029,10 +2010,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="24">
         <v>1200</v>
@@ -2057,10 +2038,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="24">
         <v>1200</v>
@@ -2085,10 +2066,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="24">
         <v>1200</v>
@@ -2113,10 +2094,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="24">
         <v>1200</v>
@@ -2141,10 +2122,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="24">
         <v>3000</v>
@@ -2851,8 +2832,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2885,9 +2866,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
@@ -2902,68 +2881,60 @@
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>111</v>
-      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>114</v>
-      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
